--- a/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.41494693685725</v>
+        <v>93.100125923188</v>
       </c>
       <c r="D2" t="n">
-        <v>13.80644383912517</v>
+        <v>11.74801433394855</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.90586261826311</v>
+        <v>92.88022791247081</v>
       </c>
       <c r="D3" t="n">
-        <v>13.61267167323975</v>
+        <v>12.72808752250647</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.75717334959933</v>
+        <v>91.70311918701751</v>
       </c>
       <c r="D4" t="n">
-        <v>12.30092146254922</v>
+        <v>12.16686105816012</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.34356519019225</v>
+        <v>91.22995873560448</v>
       </c>
       <c r="D5" t="n">
-        <v>13.99580084316209</v>
+        <v>11.44315885877333</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.74881582602632</v>
+        <v>89.76819169922402</v>
       </c>
       <c r="D6" t="n">
-        <v>12.91090462846994</v>
+        <v>12.45480942770685</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>90.56403877129286</v>
+        <v>88.84305094183006</v>
       </c>
       <c r="D7" t="n">
-        <v>12.63465093298491</v>
+        <v>13.09754502310632</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.58863119472359</v>
+        <v>88.71598364486643</v>
       </c>
       <c r="D8" t="n">
-        <v>12.50304494326105</v>
+        <v>12.65862642536678</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.57173930713125</v>
+        <v>85.12718994406433</v>
       </c>
       <c r="D9" t="n">
-        <v>12.82310777092823</v>
+        <v>12.97076820414347</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>87.39460563524985</v>
+        <v>82.73273434601899</v>
       </c>
       <c r="D10" t="n">
-        <v>14.72061647296589</v>
+        <v>12.60555684716765</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.17054445138596</v>
+        <v>85.28462533483922</v>
       </c>
       <c r="D11" t="n">
-        <v>13.88461679651519</v>
+        <v>12.94878899733306</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.24310029124874</v>
+        <v>83.32182821931065</v>
       </c>
       <c r="D12" t="n">
-        <v>13.89892761961294</v>
+        <v>12.45501684211062</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.42132367394309</v>
+        <v>83.06388320258911</v>
       </c>
       <c r="D13" t="n">
-        <v>13.93247353551059</v>
+        <v>12.21285807136515</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.36670268185284</v>
+        <v>78.07580158504801</v>
       </c>
       <c r="D14" t="n">
-        <v>13.43122292887402</v>
+        <v>12.90006354054955</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.28520421792402</v>
+        <v>80.07783364268171</v>
       </c>
       <c r="D15" t="n">
-        <v>13.6811702164153</v>
+        <v>11.75817941994903</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.61953459914358</v>
+        <v>79.87091719988871</v>
       </c>
       <c r="D16" t="n">
-        <v>12.29048534534644</v>
+        <v>12.23108772148356</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>80.6312895685753</v>
+        <v>75.24918153667501</v>
       </c>
       <c r="D17" t="n">
-        <v>13.32488992102835</v>
+        <v>13.87660413511177</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.39194678744865</v>
+        <v>75.85391068805474</v>
       </c>
       <c r="D18" t="n">
-        <v>14.10835113290157</v>
+        <v>13.07021203602389</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.87987956193997</v>
+        <v>74.46124648331214</v>
       </c>
       <c r="D19" t="n">
-        <v>12.95817480197116</v>
+        <v>13.11196176514887</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.8525688483082</v>
+        <v>72.88672400189422</v>
       </c>
       <c r="D20" t="n">
-        <v>13.12024273669662</v>
+        <v>13.34382993171312</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.66280917536903</v>
+        <v>71.6229640126607</v>
       </c>
       <c r="D21" t="n">
-        <v>13.77124206044439</v>
+        <v>11.72237072325291</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.03850974472034</v>
+        <v>69.16262585084537</v>
       </c>
       <c r="D22" t="n">
-        <v>12.95964276140729</v>
+        <v>13.14271742662485</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.43943838492449</v>
+        <v>71.810431206733</v>
       </c>
       <c r="D23" t="n">
-        <v>11.1280040235603</v>
+        <v>11.48728585166153</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.24781693213859</v>
+        <v>70.73555255847421</v>
       </c>
       <c r="D24" t="n">
-        <v>11.81921767710909</v>
+        <v>11.80378711068095</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.95024330156879</v>
+        <v>69.02277752254803</v>
       </c>
       <c r="D25" t="n">
-        <v>12.91205002243515</v>
+        <v>13.45986304400672</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.56701045511889</v>
+        <v>67.82328205763616</v>
       </c>
       <c r="D26" t="n">
-        <v>12.02188412956836</v>
+        <v>12.06716112970249</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.41143936756555</v>
+        <v>67.15672475236997</v>
       </c>
       <c r="D27" t="n">
-        <v>13.14418391311652</v>
+        <v>13.23625771559994</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.54209072685076</v>
+        <v>65.14694369666239</v>
       </c>
       <c r="D28" t="n">
-        <v>13.71352478889998</v>
+        <v>13.68690454244942</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.0628221615458</v>
+        <v>62.12831067544361</v>
       </c>
       <c r="D29" t="n">
-        <v>14.28931342385411</v>
+        <v>13.17228200623512</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.85517940376582</v>
+        <v>64.98913670837827</v>
       </c>
       <c r="D30" t="n">
-        <v>12.91018558913289</v>
+        <v>12.71381410530476</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.2077310915999</v>
+        <v>61.57464315430796</v>
       </c>
       <c r="D31" t="n">
-        <v>13.69583041621347</v>
+        <v>10.92984644898579</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.96668792796109</v>
+        <v>60.77847385346683</v>
       </c>
       <c r="D32" t="n">
-        <v>11.91269943963393</v>
+        <v>11.97340295767179</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.53497574299914</v>
+        <v>58.59708381968959</v>
       </c>
       <c r="D33" t="n">
-        <v>13.04276882463131</v>
+        <v>10.73267223515952</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.90811338607952</v>
+        <v>56.50657830039869</v>
       </c>
       <c r="D34" t="n">
-        <v>13.07601472955235</v>
+        <v>11.52578600698109</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.07658708391536</v>
+        <v>58.79587666319328</v>
       </c>
       <c r="D35" t="n">
-        <v>12.91314491854354</v>
+        <v>11.51861711005021</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>53.68259260373594</v>
+        <v>56.20954042995771</v>
       </c>
       <c r="D36" t="n">
-        <v>12.53442256316825</v>
+        <v>12.88254441249033</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>58.34834221133575</v>
+        <v>53.55312163053038</v>
       </c>
       <c r="D37" t="n">
-        <v>13.15567062648728</v>
+        <v>13.42917488794623</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.68496871385783</v>
+        <v>55.29416590250914</v>
       </c>
       <c r="D38" t="n">
-        <v>12.00760818117615</v>
+        <v>15.42808173144441</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.37458271995976</v>
+        <v>56.32532641589776</v>
       </c>
       <c r="D39" t="n">
-        <v>12.49569933251858</v>
+        <v>13.1211666987398</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.00741472960012</v>
+        <v>51.28325459084183</v>
       </c>
       <c r="D40" t="n">
-        <v>11.93101563538357</v>
+        <v>12.14384716722182</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.35737678141297</v>
+        <v>51.19963592905332</v>
       </c>
       <c r="D41" t="n">
-        <v>11.45597571198151</v>
+        <v>12.21324951399405</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.54459485001689</v>
+        <v>50.55921164436644</v>
       </c>
       <c r="D42" t="n">
-        <v>11.4725777194853</v>
+        <v>12.28657679268322</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.87399556076815</v>
+        <v>51.09093525956404</v>
       </c>
       <c r="D43" t="n">
-        <v>11.89618790612167</v>
+        <v>13.57996290439267</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.15405611313758</v>
+        <v>48.77277796450798</v>
       </c>
       <c r="D44" t="n">
-        <v>12.77145065379969</v>
+        <v>13.14372131200582</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.81588248001842</v>
+        <v>46.0194403522808</v>
       </c>
       <c r="D45" t="n">
-        <v>12.06484935873663</v>
+        <v>12.31629704998622</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.98102025906275</v>
+        <v>44.62496136754624</v>
       </c>
       <c r="D46" t="n">
-        <v>14.66292354155418</v>
+        <v>11.9252655194835</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.30867157527234</v>
+        <v>44.32922303922902</v>
       </c>
       <c r="D47" t="n">
-        <v>15.10207379532232</v>
+        <v>11.7234428396497</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.97488599530575</v>
+        <v>44.59310593327485</v>
       </c>
       <c r="D48" t="n">
-        <v>13.77716400865116</v>
+        <v>13.11572773094509</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.4839793389613</v>
+        <v>45.38555141866819</v>
       </c>
       <c r="D49" t="n">
-        <v>14.24395349215723</v>
+        <v>11.88912301743919</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>45.86791649804224</v>
+        <v>40.91070425271305</v>
       </c>
       <c r="D50" t="n">
-        <v>13.52008556118656</v>
+        <v>12.40477147047134</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.34681216363987</v>
+        <v>38.32077477421596</v>
       </c>
       <c r="D51" t="n">
-        <v>14.31569242578966</v>
+        <v>12.80887448956652</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.49896153276532</v>
+        <v>40.1554758281636</v>
       </c>
       <c r="D52" t="n">
-        <v>11.342043715901</v>
+        <v>11.45245248791536</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.19587982992764</v>
+        <v>38.97689098964673</v>
       </c>
       <c r="D53" t="n">
-        <v>13.44065570787357</v>
+        <v>11.42240588933321</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.58228407039692</v>
+        <v>37.71156901791777</v>
       </c>
       <c r="D54" t="n">
-        <v>12.88956737315641</v>
+        <v>10.7235911045557</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>40.00720273394735</v>
+        <v>38.65191598658941</v>
       </c>
       <c r="D55" t="n">
-        <v>11.52503401850475</v>
+        <v>12.99013782468831</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.6032356550142</v>
+        <v>35.22646520796716</v>
       </c>
       <c r="D56" t="n">
-        <v>11.20791316108342</v>
+        <v>11.30566014258363</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>37.10465853286216</v>
+        <v>34.40957127687146</v>
       </c>
       <c r="D57" t="n">
-        <v>12.35378312114938</v>
+        <v>12.13900441072447</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.72012166081279</v>
+        <v>33.81748360045233</v>
       </c>
       <c r="D58" t="n">
-        <v>12.85736099122966</v>
+        <v>10.89056622523877</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.19290765586435</v>
+        <v>34.24861994679534</v>
       </c>
       <c r="D59" t="n">
-        <v>12.56476218105741</v>
+        <v>13.05082335037688</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.14360508909509</v>
+        <v>29.48843716027177</v>
       </c>
       <c r="D60" t="n">
-        <v>13.14138724424896</v>
+        <v>12.07661527254424</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.30611178145813</v>
+        <v>32.88665044604149</v>
       </c>
       <c r="D61" t="n">
-        <v>13.64966854241471</v>
+        <v>11.62486585355734</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.58034461236076</v>
+        <v>29.43552602720579</v>
       </c>
       <c r="D62" t="n">
-        <v>12.43101305278645</v>
+        <v>14.08406615086131</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.26159686162292</v>
+        <v>28.75878137142782</v>
       </c>
       <c r="D63" t="n">
-        <v>11.49818731418447</v>
+        <v>12.91462956084552</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.6617876997096</v>
+        <v>28.82505201642269</v>
       </c>
       <c r="D64" t="n">
-        <v>12.51819085406788</v>
+        <v>11.27507219959716</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.49688828854863</v>
+        <v>26.96415636549521</v>
       </c>
       <c r="D65" t="n">
-        <v>11.35347781882389</v>
+        <v>12.60817510337454</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.22600719789846</v>
+        <v>24.77004327955019</v>
       </c>
       <c r="D66" t="n">
-        <v>12.22345088925216</v>
+        <v>11.32575449261963</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.80708558793672</v>
+        <v>24.63578776144123</v>
       </c>
       <c r="D67" t="n">
-        <v>12.00715302801935</v>
+        <v>11.47020094417281</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.91881941402082</v>
+        <v>24.47212924121272</v>
       </c>
       <c r="D68" t="n">
-        <v>14.00927392115611</v>
+        <v>11.57845275098438</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.95712760426105</v>
+        <v>23.56398397861762</v>
       </c>
       <c r="D69" t="n">
-        <v>11.18212481020555</v>
+        <v>11.99028854561928</v>
       </c>
     </row>
   </sheetData>
